--- a/gd/副本内容设计/弱点tips.xlsx
+++ b/gd/副本内容设计/弱点tips.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Way4games\策划文档\副本内容设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/副本内容设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="765" windowWidth="28800" windowHeight="18075"/>
+    <workbookView xWindow="3040" yWindow="760" windowWidth="28800" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="弱点tips" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="178">
   <si>
     <t>·</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -365,9 +365,6 @@
     <t>Find me</t>
   </si>
   <si>
-    <t>Don't touch my horn!</t>
-  </si>
-  <si>
     <t>Hands are very delicate.</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t>Default</t>
   </si>
   <si>
-    <t>Don't touch my horns!</t>
-  </si>
-  <si>
     <t>Magic ball gives me ATK power!</t>
   </si>
   <si>
@@ -429,10 +423,6 @@
   </si>
   <si>
     <t>Increase Number of Strikes per turn</t>
-  </si>
-  <si>
-    <t>别碰我的角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>龙珠将给我带来攻击加成</t>
@@ -687,6 +677,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>My horn is where I become fragile.</t>
+  </si>
+  <si>
+    <t>我的角和脆弱</t>
+  </si>
 </sst>
 </file>
 
@@ -696,7 +692,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -710,7 +706,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -734,7 +730,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -743,7 +739,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -832,9 +828,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1114,26 +1110,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1"/>
-    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="27.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -1156,7 +1152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1166,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -1179,10 +1175,10 @@
         <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1190,10 +1186,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>93</v>
@@ -1205,10 +1201,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1218,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -1231,10 +1227,10 @@
         <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1242,10 +1238,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>93</v>
@@ -1254,13 +1250,13 @@
         <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1270,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -1283,10 +1279,10 @@
         <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1294,10 +1290,10 @@
         <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>93</v>
@@ -1309,7 +1305,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1317,10 +1313,10 @@
         <v>38</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>93</v>
@@ -1332,10 +1328,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1345,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -1358,10 +1354,10 @@
         <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1369,10 +1365,10 @@
         <v>42</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>93</v>
@@ -1384,7 +1380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1392,10 +1388,10 @@
         <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>93</v>
@@ -1407,7 +1403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1415,10 +1411,10 @@
         <v>44</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>93</v>
@@ -1430,10 +1426,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1443,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>32</v>
@@ -1456,10 +1452,10 @@
         <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="D19" s="1" t="s">
         <v>25</v>
@@ -1468,10 +1464,10 @@
         <v>48</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>93</v>
@@ -1480,14 +1476,14 @@
         <v>49</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1501,7 +1497,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>32</v>
@@ -1510,10 +1506,10 @@
         <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -1522,10 +1518,10 @@
         <v>51</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>93</v>
@@ -1537,11 +1533,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1555,7 +1551,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>32</v>
@@ -1564,10 +1560,10 @@
         <v>33</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1575,10 +1571,10 @@
         <v>54</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>93</v>
@@ -1590,10 +1586,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1603,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>32</v>
@@ -1616,10 +1612,10 @@
         <v>33</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="D28" s="1" t="s">
         <v>25</v>
@@ -1628,10 +1624,10 @@
         <v>58</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>93</v>
@@ -1643,7 +1639,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>56</v>
@@ -1652,10 +1648,10 @@
         <v>57</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>93</v>
@@ -1667,11 +1663,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1681,7 @@
         <v>59</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>32</v>
@@ -1694,10 +1690,10 @@
         <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1705,22 +1701,22 @@
         <v>62</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
         <v>56</v>
       </c>
@@ -1728,25 +1724,25 @@
         <v>63</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1760,7 +1756,7 @@
         <v>59</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>32</v>
@@ -1769,10 +1765,10 @@
         <v>33</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
         <v>25</v>
       </c>
@@ -1780,22 +1776,22 @@
         <v>65</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
         <v>56</v>
       </c>
@@ -1803,25 +1799,25 @@
         <v>66</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1835,7 +1831,7 @@
         <v>59</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>32</v>
@@ -1844,36 +1840,36 @@
         <v>33</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1887,7 +1883,7 @@
         <v>27</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>32</v>
@@ -1896,10 +1892,10 @@
         <v>33</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D43" s="1" t="s">
         <v>25</v>
       </c>
@@ -1907,22 +1903,22 @@
         <v>69</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>56</v>
       </c>
@@ -1930,22 +1926,22 @@
         <v>70</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
         <v>41</v>
       </c>
@@ -1953,25 +1949,25 @@
         <v>71</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
@@ -1985,7 +1981,7 @@
         <v>27</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>32</v>
@@ -1994,10 +1990,10 @@
         <v>33</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
         <v>25</v>
       </c>
@@ -2005,22 +2001,22 @@
         <v>28</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>56</v>
       </c>
@@ -2028,25 +2024,25 @@
         <v>73</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="J49" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2056,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>32</v>
@@ -2069,10 +2065,10 @@
         <v>33</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
         <v>76</v>
       </c>
@@ -2080,22 +2076,22 @@
         <v>28</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D53" s="1" t="s">
         <v>77</v>
       </c>
@@ -2103,25 +2099,25 @@
         <v>78</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>18</v>
       </c>
@@ -2132,10 +2128,10 @@
         <v>75</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>32</v>
@@ -2144,10 +2140,10 @@
         <v>33</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D56" s="1" t="s">
         <v>76</v>
       </c>
@@ -2155,22 +2151,22 @@
         <v>80</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
         <v>77</v>
       </c>
@@ -2178,25 +2174,25 @@
         <v>81</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>19</v>
       </c>
@@ -2207,160 +2203,160 @@
         <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D60" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D61" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D62" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D63" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D64" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D65" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I74" s="1" t="s">
         <v>0</v>
       </c>

--- a/gd/副本内容设计/弱点tips.xlsx
+++ b/gd/副本内容设计/弱点tips.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/副本内容设计/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="760" windowWidth="28800" windowHeight="18080"/>
+    <workbookView xWindow="3045" yWindow="765" windowWidth="28800" windowHeight="18075"/>
   </bookViews>
   <sheets>
     <sheet name="弱点tips" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
   <si>
     <t>·</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -683,6 +683,69 @@
   <si>
     <t>我的角和脆弱</t>
   </si>
+  <si>
+    <t>副本选择tips</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人家是偶像，靠脸吃饭哒，打人能不打脸不</t>
+  </si>
+  <si>
+    <t>根茎是植物的生命之源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手腕带了厚重的铁环，只是为了锻炼么</t>
+  </si>
+  <si>
+    <t>我们是三兄弟！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣就是我的武器</t>
+  </si>
+  <si>
+    <t>看我用我的大锤给你们轰塌！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看我动感光波！</t>
+  </si>
+  <si>
+    <t>球呢！？我的球呢！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自从我手上中了一箭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请你接受我的心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏什么的我真的木有！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一不小心哥哥的灵魂就被吸走了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙宫至宝在我手里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>围巾是我的最爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的心是空的！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁也不会看到我的真面目！</t>
+  </si>
 </sst>
 </file>
 
@@ -692,7 +755,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -706,7 +769,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -730,7 +793,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -739,7 +802,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -828,9 +891,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1108,28 +1171,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J74"/>
+  <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="5" width="23.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1"/>
+    <col min="7" max="7" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1137,22 +1201,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1160,103 +1230,110 @@
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D7" s="1" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1264,172 +1341,179 @@
         <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="1" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="1" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D14" s="1" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="1" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1437,107 +1521,114 @@
         <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1545,51 +1636,54 @@
         <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D25" s="1" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1597,117 +1691,118 @@
         <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D32" s="1" t="s">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>177</v>
@@ -1715,22 +1810,22 @@
       <c r="J32" s="8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D33" s="1" t="s">
+      <c r="K32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>114</v>
@@ -1738,74 +1833,78 @@
       <c r="J33" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D36" s="1" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>116</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D37" s="1" t="s">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>118</v>
@@ -1813,103 +1912,111 @@
       <c r="J37" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D40" s="1" t="s">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="K40" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="L40" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D43" s="1" t="s">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>124</v>
@@ -1917,45 +2024,45 @@
       <c r="J43" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D44" s="1" t="s">
+      <c r="K43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="H44" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>120</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D45" s="1" t="s">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>121</v>
@@ -1963,299 +2070,315 @@
       <c r="J45" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="H47" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D48" s="1" t="s">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D49" s="1" t="s">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="H51" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D52" s="1" t="s">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F52" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="H52" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D53" s="1" t="s">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="G55" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="H55" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D56" s="1" t="s">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="H56" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D57" s="1" t="s">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="H57" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="H59" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D60" s="1" t="s">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F60" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="H60" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D61" s="1" t="s">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>168</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="H61" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>131</v>
@@ -2263,22 +2386,22 @@
       <c r="J61" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D62" s="1" t="s">
+      <c r="K61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F62" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>166</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="H62" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>136</v>
@@ -2286,22 +2409,22 @@
       <c r="J62" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D63" s="1" t="s">
+      <c r="K62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>167</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="H63" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>131</v>
@@ -2309,22 +2432,22 @@
       <c r="J63" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D64" s="1" t="s">
+      <c r="K63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="F64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>166</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="H64" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>136</v>
@@ -2332,22 +2455,22 @@
       <c r="J64" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D65" s="1" t="s">
+      <c r="K64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="F65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>170</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="H65" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>131</v>
@@ -2355,9 +2478,15 @@
       <c r="J65" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I74" s="1" t="s">
+      <c r="K65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="6:12" x14ac:dyDescent="0.15">
+      <c r="K74" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/gd/副本内容设计/弱点tips.xlsx
+++ b/gd/副本内容设计/弱点tips.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/副本内容设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="765" windowWidth="28800" windowHeight="18075"/>
+    <workbookView xWindow="3040" yWindow="760" windowWidth="28800" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="弱点tips" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="212">
   <si>
     <t>·</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -746,16 +746,84 @@
   <si>
     <t>谁也不会看到我的真面目！</t>
   </si>
+  <si>
+    <t>What? You think all bosses have treasure?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应英文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I gotta look good for my job, so watch the makeup!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home is where your roots are!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>These big iron bracers are a part of my new workout routine!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is origami?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You ever been punched by a flower?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This hammer is no joke!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm into underground music!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you know what my face really looks like?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This ball isn't just for playing fetch!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not only Wolverine has cool claws.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please accept my love!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A soul a day keeps the doctor away!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>See this ball? It is made of tears from adventurers before you!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'll knit you a scarf you'll never forget!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Besides the termites, my heart is completely hollow!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -769,7 +837,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -793,7 +861,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -802,7 +870,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -819,6 +887,19 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -855,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,11 +970,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,26 +1267,27 @@
   <dimension ref="B2:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1"/>
-    <col min="7" max="7" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="27.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1203,8 +1297,8 @@
       <c r="D2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>171</v>
+      <c r="E2" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -1222,7 +1316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1232,6 +1326,9 @@
       <c r="D3" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1251,7 +1348,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1274,10 +1371,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="13"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +1385,9 @@
       <c r="D6" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="11" t="s">
+        <v>198</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1307,7 +1407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,10 +1430,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="13"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1343,6 +1444,9 @@
       <c r="D9" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="E9" s="11" t="s">
+        <v>199</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,7 +1466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1489,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1408,10 +1512,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="13"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1421,7 +1526,9 @@
       <c r="D13" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1441,7 +1548,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,7 +1571,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1487,7 +1594,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1510,10 +1617,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="13"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1523,6 +1631,9 @@
       <c r="D18" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="E18" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1542,7 +1653,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="F19" s="1" t="s">
         <v>25</v>
@@ -1566,11 +1677,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
+      <c r="E20" s="13"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1692,9 @@
       <c r="D21" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1714,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="F22" s="1" t="s">
         <v>25</v>
@@ -1624,11 +1738,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
+      <c r="E23" s="13"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1638,6 +1753,9 @@
       <c r="D24" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="E24" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1775,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1680,10 +1798,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="13"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1693,6 +1812,9 @@
       <c r="D27" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="E27" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="F28" s="1" t="s">
         <v>25</v>
@@ -1736,7 +1858,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="F29" s="1" t="s">
         <v>56</v>
@@ -1760,11 +1882,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
+      <c r="E30" s="13"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1774,7 +1897,9 @@
       <c r="D31" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1794,7 +1919,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1942,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F33" s="1" t="s">
         <v>56</v>
       </c>
@@ -1840,10 +1965,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="13"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1979,9 @@
       <c r="D35" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,7 +2001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F36" s="1" t="s">
         <v>25</v>
       </c>
@@ -1896,7 +2024,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F37" s="1" t="s">
         <v>56</v>
       </c>
@@ -1919,10 +2047,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="13"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1932,7 +2061,9 @@
       <c r="D39" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1952,7 +2083,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F40" s="1" t="s">
         <v>25</v>
       </c>
@@ -1975,10 +2106,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="13"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1988,7 +2120,9 @@
       <c r="D42" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>24</v>
       </c>
@@ -2008,7 +2142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F43" s="1" t="s">
         <v>25</v>
       </c>
@@ -2031,7 +2165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F44" s="1" t="s">
         <v>56</v>
       </c>
@@ -2054,7 +2188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F45" s="1" t="s">
         <v>41</v>
       </c>
@@ -2077,10 +2211,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="13"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
@@ -2090,7 +2225,9 @@
       <c r="D47" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="F47" s="1" t="s">
         <v>24</v>
       </c>
@@ -2110,7 +2247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F48" s="1" t="s">
         <v>25</v>
       </c>
@@ -2133,7 +2270,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F49" s="1" t="s">
         <v>56</v>
       </c>
@@ -2156,10 +2293,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="13"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
@@ -2169,7 +2307,9 @@
       <c r="D51" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2189,7 +2329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F52" s="1" t="s">
         <v>76</v>
       </c>
@@ -2212,7 +2352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F53" s="1" t="s">
         <v>77</v>
       </c>
@@ -2235,10 +2375,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="13"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>18</v>
       </c>
@@ -2248,7 +2389,9 @@
       <c r="D55" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>75</v>
       </c>
@@ -2268,7 +2411,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F56" s="1" t="s">
         <v>76</v>
       </c>
@@ -2291,7 +2434,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F57" s="1" t="s">
         <v>77</v>
       </c>
@@ -2314,10 +2457,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="13"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>19</v>
       </c>
@@ -2327,7 +2471,9 @@
       <c r="D59" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>75</v>
       </c>
@@ -2347,7 +2493,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F60" s="1" t="s">
         <v>76</v>
       </c>
@@ -2370,7 +2516,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F61" s="1" t="s">
         <v>77</v>
       </c>
@@ -2393,7 +2539,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F62" s="1" t="s">
         <v>83</v>
       </c>
@@ -2416,7 +2562,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F63" s="1" t="s">
         <v>84</v>
       </c>
@@ -2439,7 +2585,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F64" s="1" t="s">
         <v>85</v>
       </c>
@@ -2462,7 +2608,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="6:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F65" s="1" t="s">
         <v>86</v>
       </c>
@@ -2485,7 +2631,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="6:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="6:12" x14ac:dyDescent="0.2">
       <c r="K74" s="1" t="s">
         <v>0</v>
       </c>
